--- a/biology/Zoologie/Geocapromys_thoracatus/Geocapromys_thoracatus.xlsx
+++ b/biology/Zoologie/Geocapromys_thoracatus/Geocapromys_thoracatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Hutia de Little Sawn Island (Geocapromys thoracatus)  ou Rat de Little Sawn Island[1] est un rongeur de la famille des Capromyidés. Endemique de la Petite île Swan, au Honduras, cette espèce est considérée comme éteinte par l'UICN. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Hutia de Little Sawn Island (Geocapromys thoracatus)  ou Rat de Little Sawn Island est un rongeur de la famille des Capromyidés. Endemique de la Petite île Swan, au Honduras, cette espèce est considérée comme éteinte par l'UICN. 
 L'espèce a été décrite pour la première fois en 1888 par  Frederick William True (1858-1914), un mammalogiste américain.
 </t>
         </is>
